--- a/SP_Sklad/TempLate/ProductionPlanning(53).xlsx
+++ b/SP_Sklad/TempLate/ProductionPlanning(53).xlsx
@@ -10,18 +10,18 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$6:$J$10</definedName>
-    <definedName name="MatInDet">Лист1!$A$8:$J$9</definedName>
+    <definedName name="MatGroup">Лист1!$A$7:$J$11</definedName>
+    <definedName name="MatInDet">Лист1!$A$9:$J$10</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$4:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>sum</t>
   </si>
@@ -52,12 +52,15 @@
   <si>
     <t>Залишки на дату</t>
   </si>
+  <si>
+    <t>Склад</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -141,6 +144,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="56"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
@@ -363,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -398,6 +407,12 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -444,9 +459,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -815,12 +827,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -837,17 +846,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="27" customHeight="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="6"/>
@@ -860,148 +869,164 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="4" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B4" s="27" t="s">
+    <row r="3" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="21" t="e">
+        <f>XLRPARAMS_WhName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="5" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="27" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B5" s="28"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="19" t="e">
+    <row r="6" spans="2:10" ht="13.5" customHeight="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="19" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="I5" s="19" t="e">
+      <c r="I6" s="19" t="e">
         <f>XLRPARAMS_OnDate1</f>
         <v>#NAME?</v>
       </c>
-      <c r="J5" s="19" t="e">
+      <c r="J6" s="19" t="e">
         <f>XLRPARAMS_OnDate2</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B7" s="20" t="e">
-        <f>MatGroup_GrpName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+    <row r="7" spans="2:10" ht="9" customHeight="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B8" s="13" t="e">
-        <f>MatInDet_Artikul</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" s="23" t="e">
-        <f>MatInDet_MatName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="12" t="e">
-        <f>MatInDet_MSRNAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G8" s="36" t="e">
-        <f>MatInDet_MakeAmount</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H8" s="36" t="e">
-        <f>MatInDet_Remain</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I8" s="36" t="e">
-        <f>MatInDet_OrderedAmount1</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="36" t="e">
-        <f>MatInDet_OrderedAmount2</f>
-        <v>#NAME?</v>
-      </c>
+      <c r="B8" s="22" t="e">
+        <f>MatGroup_GrpName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>0</v>
+      <c r="B9" s="13" t="e">
+        <f>MatInDet_Artikul</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C9" s="25" t="e">
+        <f>MatInDet_MatName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="12" t="e">
+        <f>MatInDet_MSRNAME</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="20" t="e">
+        <f>MatInDet_MakeAmount</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H9" s="20" t="e">
+        <f>MatInDet_Remain</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I9" s="20" t="e">
+        <f>MatInDet_OrderedAmount1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J9" s="20" t="e">
+        <f>MatInDet_OrderedAmount2</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C4:E5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/ProductionPlanning(53).xlsx
+++ b/SP_Sklad/TempLate/ProductionPlanning(53).xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WinVSProjects\SP-Sklad\SP_Sklad\TempLate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320F9B39-19B5-42D9-B2FB-F06952547A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="4125" windowWidth="14175" windowHeight="7260"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$7:$J$11</definedName>
-    <definedName name="MatInDet">Лист1!$A$9:$J$10</definedName>
+    <definedName name="MatGroup">Лист1!$A$7:$K$11</definedName>
+    <definedName name="MatInDet">Лист1!$A$9:$K$10</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>sum</t>
   </si>
@@ -55,12 +72,15 @@
   <si>
     <t>Склад</t>
   </si>
+  <si>
+    <t>Замовлено1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -372,33 +392,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,19 +435,19 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,6 +556,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -584,7 +606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,9 +638,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,6 +690,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -825,13 +883,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:J11"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
@@ -840,189 +898,206 @@
     <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
     <col min="7" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27" customHeight="1">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+    <row r="2" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21" t="e">
+      <c r="C3" s="20" t="e">
         <f>XLRPARAMS_WhName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B5" s="29" t="s">
+    <row r="4" spans="2:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="19" t="e">
+    <row r="6" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="29"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="18" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="I6" s="19" t="e">
+      <c r="I6" s="18" t="e">
         <f>XLRPARAMS_OnDate1</f>
         <v>#NAME?</v>
       </c>
-      <c r="J6" s="19" t="e">
+      <c r="J6" s="18" t="e">
         <f>XLRPARAMS_OnDate2</f>
         <v>#NAME?</v>
       </c>
+      <c r="K6" s="18" t="e">
+        <f>XLRPARAMS_OnDate3</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" ht="9" customHeight="1">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14"/>
+    <row r="7" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B8" s="22" t="e">
+    <row r="8" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="e">
         <f>MatGroup_GrpName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B9" s="13" t="e">
+    <row r="9" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="e">
         <f>MatInDet_Artikul</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="25" t="e">
+      <c r="C9" s="24" t="e">
         <f>MatInDet_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="12" t="e">
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="11" t="e">
         <f>MatInDet_MSRNAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G9" s="20" t="e">
+      <c r="G9" s="19" t="e">
         <f>MatInDet_MakeAmount</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="20" t="e">
+      <c r="H9" s="19" t="e">
         <f>MatInDet_Remain</f>
         <v>#NAME?</v>
       </c>
-      <c r="I9" s="20" t="e">
+      <c r="I9" s="19" t="e">
         <f>MatInDet_OrderedAmount1</f>
         <v>#NAME?</v>
       </c>
-      <c r="J9" s="20" t="e">
+      <c r="J9" s="19" t="e">
         <f>MatInDet_OrderedAmount2</f>
         <v>#NAME?</v>
       </c>
+      <c r="K9" s="19" t="e">
+        <f>MatInDet_OrderedAmount3</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="15" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+    <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B8:K8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:K1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="C5:E6"/>
